--- a/biology/Médecine/Choléra_des_poules/Choléra_des_poules.xlsx
+++ b/biology/Médecine/Choléra_des_poules/Choléra_des_poules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chol%C3%A9ra_des_poules</t>
+          <t>Choléra_des_poules</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le choléra des poules est une maladie aviaire due à une bactérie du genre Pasteurella, Pasteurella multocida, découverte par le vétérinaire alsacien Moritz[1] puis étudiée successivement par Sebastiano Rivolta (it) (1832-1893) en 1877, Edoardo Perroncito (1847-1936) et Semmer, vétérinaires à Turin en 1878 et Henry Toussaint à Toulouse en 1879[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le choléra des poules est une maladie aviaire due à une bactérie du genre Pasteurella, Pasteurella multocida, découverte par le vétérinaire alsacien Moritz puis étudiée successivement par Sebastiano Rivolta (it) (1832-1893) en 1877, Edoardo Perroncito (1847-1936) et Semmer, vétérinaires à Turin en 1878 et Henry Toussaint à Toulouse en 1879.
 Pasteur mit au point une méthode de culture plus efficace que celle de Toussaint et publia un procédé de vaccination par atténuation à l'aide d'oxygène : il s'agit du premier exemple de vaccin vivant atténué.
 Cette maladie n'a rien à voir avec le choléra humain, dû à Vibrio cholerae.
 </t>
